--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1924.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1924.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.038292956328495</v>
+        <v>1.034668445587158</v>
       </c>
       <c r="B1">
-        <v>4.04345482541286</v>
+        <v>1.018976926803589</v>
       </c>
       <c r="C1">
-        <v>2.197739268399115</v>
+        <v>0.7948615550994873</v>
       </c>
       <c r="D1">
-        <v>1.607412177352761</v>
+        <v>5.245019912719727</v>
       </c>
       <c r="E1">
-        <v>1.398567819508235</v>
+        <v>2.015298843383789</v>
       </c>
     </row>
   </sheetData>
